--- a/audio/zh/方案四/飯店QA/飯店QA.xlsx
+++ b/audio/zh/方案四/飯店QA/飯店QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Desktop\audio_demo_project\audio\zh\方案四\飯店QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2CD8E0-9250-4E58-B679-EB918703AB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5011273-1BEF-4E91-89E1-D6BD3D3826F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="401">
   <si>
     <t>問題</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1332,6 +1332,12 @@
   </si>
   <si>
     <t>請問這裡有提供腳踏車租借的服務嗎?</t>
+  </si>
+  <si>
+    <t>請問南方連通門在哪裡呢?另外客房和大廳的Wi-Fi密碼是多少呢?謝謝</t>
+  </si>
+  <si>
+    <t>連通門位於一樓，WiFi密碼請向櫃台索取。</t>
   </si>
 </sst>
 </file>
@@ -1375,18 +1381,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1404,14 +1404,14 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1694,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1721,7 +1721,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B2" t="s">
@@ -1735,7 +1735,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B3" t="s">
@@ -1749,7 +1749,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B4" t="s">
@@ -1763,7 +1763,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B5" t="s">
@@ -1777,7 +1777,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B6" t="s">
@@ -1791,7 +1791,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B7" t="s">
@@ -1805,7 +1805,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B8" t="s">
@@ -1819,7 +1819,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B9" t="s">
@@ -1833,7 +1833,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B10" t="s">
@@ -1847,7 +1847,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B11" t="s">
@@ -1861,29 +1861,35 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>214</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:4" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B14" t="s">
@@ -1897,7 +1903,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B15" t="s">
@@ -1911,7 +1917,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B16" t="s">
@@ -1925,7 +1931,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B17" t="s">
@@ -1939,7 +1945,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B18" t="s">
@@ -1953,7 +1959,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B19" t="s">
@@ -1967,7 +1973,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B20" t="s">
@@ -1981,7 +1987,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B21" t="s">
@@ -1995,7 +2001,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B22" t="s">
@@ -2009,7 +2015,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B23" t="s">
@@ -2023,7 +2029,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B24" t="s">
@@ -2037,7 +2043,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B25" t="s">
@@ -2051,7 +2057,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B26" t="s">
@@ -2065,7 +2071,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B27" t="s">
@@ -2079,7 +2085,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B28" t="s">
@@ -2093,7 +2099,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B29" t="s">
@@ -2107,7 +2113,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B30" t="s">
@@ -2121,7 +2127,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B31" t="s">
@@ -2135,7 +2141,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B32" t="s">
@@ -2149,7 +2155,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B33" t="s">
@@ -2163,7 +2169,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B34" t="s">
@@ -2177,7 +2183,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B35" t="s">
@@ -2191,7 +2197,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B36" t="s">
@@ -2205,7 +2211,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B37" t="s">
@@ -2219,7 +2225,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B38" t="s">
@@ -2233,7 +2239,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B39" t="s">
@@ -2247,7 +2253,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B40" t="s">
@@ -2261,7 +2267,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B41" t="s">
@@ -2275,7 +2281,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B42" t="s">
@@ -2289,7 +2295,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B43" t="s">
@@ -2303,7 +2309,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B44" t="s">
@@ -2317,7 +2323,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B45" t="s">
@@ -2331,7 +2337,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B46" t="s">
@@ -2345,7 +2351,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B47" t="s">
@@ -2359,7 +2365,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B48" t="s">
@@ -2373,7 +2379,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B49" t="s">
@@ -2387,7 +2393,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B50" t="s">
@@ -2401,7 +2407,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B51" t="s">
@@ -2415,7 +2421,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B52" t="s">
@@ -2429,7 +2435,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B53" t="s">
@@ -2443,7 +2449,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B54" t="s">
@@ -2457,7 +2463,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B55" t="s">
@@ -2471,7 +2477,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B56" t="s">
@@ -2485,7 +2491,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B57" t="s">
@@ -2499,7 +2505,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B58" t="s">
@@ -2513,7 +2519,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B59" t="s">
@@ -2527,7 +2533,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B60" t="s">
@@ -2541,7 +2547,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B61" t="s">
@@ -2555,7 +2561,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B62" t="s">
@@ -2569,7 +2575,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B63" t="s">
@@ -2583,7 +2589,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B64" t="s">
@@ -2597,7 +2603,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B65" t="s">
@@ -2611,7 +2617,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B66" t="s">
@@ -2625,7 +2631,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B67" t="s">
@@ -2639,7 +2645,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B68" t="s">
@@ -2653,7 +2659,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B69" t="s">
@@ -2667,7 +2673,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B70" t="s">
@@ -2681,7 +2687,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B71" t="s">
@@ -2695,7 +2701,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B72" t="s">
@@ -2709,7 +2715,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B73" t="s">
@@ -2723,7 +2729,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B74" t="s">
@@ -2737,7 +2743,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B75" t="s">
@@ -2751,7 +2757,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B76" t="s">
@@ -2765,7 +2771,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B77" t="s">
@@ -2779,7 +2785,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B78" t="s">
@@ -2793,7 +2799,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B79" t="s">
@@ -2807,7 +2813,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B80" t="s">
@@ -2821,7 +2827,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B81" t="s">
@@ -2835,7 +2841,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B82" t="s">
@@ -2849,7 +2855,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B83" t="s">
@@ -2863,7 +2869,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B84" t="s">
@@ -2877,7 +2883,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B85" t="s">
@@ -2891,7 +2897,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B86" t="s">
@@ -2905,7 +2911,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B87" t="s">
@@ -2919,7 +2925,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B88" t="s">
@@ -2933,7 +2939,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B89" t="s">
@@ -2947,7 +2953,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B90" t="s">
@@ -2961,7 +2967,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B91" t="s">
@@ -2975,7 +2981,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B92" t="s">
@@ -2989,7 +2995,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B93" t="s">
@@ -3003,7 +3009,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B94" t="s">
@@ -3017,7 +3023,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B95" t="s">
@@ -3031,7 +3037,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B96" t="s">
@@ -3045,7 +3051,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B97" t="s">
@@ -3059,7 +3065,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B98" t="s">
@@ -3073,7 +3079,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B99" t="s">
@@ -3087,7 +3093,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B100" t="s">
@@ -3101,7 +3107,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B101" t="s">

--- a/audio/zh/方案四/飯店QA/飯店QA.xlsx
+++ b/audio/zh/方案四/飯店QA/飯店QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Desktop\audio_demo_project\audio\zh\方案四\飯店QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5011273-1BEF-4E91-89E1-D6BD3D3826F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86918F50-A090-4628-A696-89B942FC191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,602 +749,604 @@
     <t>請問這裡有提供腳踏車租借的服務嗎？</t>
   </si>
   <si>
-    <t>提供輕型健身房、自助洗衣房、甘情商號設計產品店、廿一酒吧等設施。</t>
-  </si>
-  <si>
-    <t>有輕型健身房，無三溫暖、游泳池或兒童遊戲室。</t>
-  </si>
-  <si>
-    <t>南紡購物中心停車場可能提供電動車充電樁，數量有限，建議聯繫飯店確認。</t>
-  </si>
-  <si>
-    <t>有，館內設有KTV。</t>
-  </si>
-  <si>
-    <t>飯店內沒有，南紡購物中心內有提款機。</t>
-  </si>
-  <si>
-    <t>有自助洗衣房，設有洗衣機與烘衣機，使用方式請洽櫃台。</t>
-  </si>
-  <si>
-    <t>無法回答。</t>
-  </si>
-  <si>
     <t>沒有專屬商務中心，可洽詢會議室租借。</t>
   </si>
   <si>
-    <t>有，大廳內有廁所可以使用。</t>
-  </si>
-  <si>
-    <t>健身房、洗衣房位於指定樓層，請洽櫃台指引。飲水機設於各客房樓層。</t>
-  </si>
-  <si>
-    <t>您好，回甘咖啡營業時間為週一至週六09:30–17:00，週日休息，距離這裡約3.1公里喔。</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦幾間附近的餐廳：泡麵機於指定樓層，投幣購買，客房商品可於櫃台或「甘情商號」購買。另外每日提供瓶裝水，飲水機設於各樓層。若需更多協助，請洽詢櫃台。</t>
-  </si>
-  <si>
-    <t>部分房型（如品味套房、老爺套房）有浴缸。</t>
-  </si>
-  <si>
-    <t>為設計裝飾或收納空間。</t>
-  </si>
-  <si>
-    <t>可，提供多款枕頭供您選擇，請洽櫃台協助喔！</t>
-  </si>
-  <si>
-    <t>全館標配免治馬桶，您放心入住！</t>
-  </si>
-  <si>
-    <t>全館客房皆有大片對外窗，您會喜歡！</t>
-  </si>
-  <si>
-    <t>部分房型支援，建議入住前請向櫃台確認。</t>
-  </si>
-  <si>
-    <t>請即時聯繫櫃台協助，他們會為您處理房卡問題。</t>
-  </si>
-  <si>
-    <t>您好，請即時聯繫櫃台協助維修，我們將盡快為您處理。謝謝！</t>
-  </si>
-  <si>
-    <t>可加床，需提前預約，數量有限喔！</t>
-  </si>
-  <si>
-    <t>早餐供應於5樓「甘粹餐廳」，時間為AM6:30-AM10:00。</t>
-  </si>
-  <si>
-    <t>早餐在5樓「甘粹餐廳」，06:30-10:00，憑房卡進入。</t>
-  </si>
-  <si>
     <t>會議/宴會廳可設臨時舞台，需事先預約。</t>
   </si>
   <si>
-    <t>可提供，請事先預約。</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦幾間附近的餐廳：可協助製作迎賓海報，請提前洽詢，另外您也可以在官網或現場查詢菜單喔。</t>
-  </si>
-  <si>
-    <t>「甘粹會議室」最多可容納120人，桌型可彈性調整喔！</t>
-  </si>
-  <si>
-    <t>會議室可依需求變更桌型，U型、教室型、劇院型皆可。</t>
-  </si>
-  <si>
-    <t>有投影設備，支援多種連接方式，您的Apple電腦都能連接使用。</t>
-  </si>
-  <si>
-    <t>「甘粹會議室」最多可容納120人，桌型可彈性調整，歡迎洽詢專人協助規劃。</t>
-  </si>
-  <si>
-    <t>與南紡購物中心地下停車場共用，住客可免費停車。</t>
-  </si>
-  <si>
     <t>依指示牌進入南紡A1館地下停車場即可。</t>
   </si>
   <si>
     <t>停車場若滿，請耐心等候或洽櫃台協助。</t>
   </si>
   <si>
-    <t>請持停車票卡至櫃台消磁或洽詢，我們協助您處理。</t>
-  </si>
-  <si>
-    <t>抱歉，飯店沒有提供接駁車服務，建議您搭乘高鐵快捷公車或計程車前往。</t>
-  </si>
-  <si>
-    <t>有YouBike站點及多家機車行。</t>
-  </si>
-  <si>
-    <t>可停南紡購物中心地下停車場，住客免費停車喔！</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦幾間附近的餐廳：卓仔麵店約500公尺，以手工麵條聞名，紅燒牛肉麵和榨菜麵深受顧客喜愛。西羅殿牛肉湯約1000公尺，米其林必比登推薦，新鮮溫體牛肉湯頭鮮美。黃家蝦捲約1.0公里，傳承五十年的經典台南小吃，蝦捲酥脆，魚丸脆肉湯也別出心裁。若需更多協助，請洽詢櫃台。</t>
-  </si>
-  <si>
-    <t>建議搭乘快捷公車或計程車，約20分鐘可達。</t>
-  </si>
-  <si>
-    <t>由一樓連通門步行即可。</t>
-  </si>
-  <si>
     <t>有設戶外吸菸區。</t>
   </si>
   <si>
-    <t>南紡購物中心內有便利商店，周邊也有喔！</t>
-  </si>
-  <si>
-    <t>花園夜市、武聖夜市、東門夜市，車程約10-15分鐘。</t>
-  </si>
-  <si>
     <t>各樓層有逃生指示圖，可走樓梯至5樓餐廳。</t>
   </si>
   <si>
-    <t>可請櫃台加強清潔或協助換房。</t>
-  </si>
-  <si>
-    <t>您好，若客房有問題或太小，可向櫃台申請更換，視房況而定喔！</t>
-  </si>
-  <si>
-    <t>全館提供免費WiFi，請向櫃台索取密碼喔！</t>
-  </si>
-  <si>
-    <t>您好，可協助您更換房室，視當天房況而定，謝謝您。</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦幾間附近的餐廳：您可提前預約，我們有提供嬰兒床、澡盆、窗房和小谷都鍋等嬰兒用品，以及一次性備品，請務必提前告知。另外，距離您這裡約3.0公里的是福泰飯桌，提供台南特色家常菜，距離約4.7公里的是鴻品牛肉湯，若需更多協助，請洽詢櫃台。</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦幾間附近的餐廳：您想詢問貝平，抱歉目前沒有相關資料，建議您洽詢櫃台，他們會為您提供更詳細的資訊喔！</t>
-  </si>
-  <si>
-    <t>請聯繫櫃台，他們會協助您處理。</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦幾間附近的餐廳：每日提供瓶裝水，飲水機設於各樓層，若需補充，可於櫃台或「甘情商號」購買。另外，卓仔麵店約500公尺，以手工麵條聞名，紅燒牛肉麵和榨菜麵深受顧客喜愛。西羅殿牛肉湯約1000公尺，米其林必比登推薦，新鮮溫體牛肉湯頭鮮美。若需協助，請洽詢櫃台。</t>
-  </si>
-  <si>
-    <t>可，請致電櫃台協助您。</t>
-  </si>
-  <si>
-    <t>有輕型健身房，提供運動服裝，請向櫃台查詢詳細位置喔！</t>
-  </si>
-  <si>
     <t>需視當日房況，可能需加價，請洽櫃台確認。</t>
   </si>
   <si>
-    <t>當然可以，可免費寄放行李，無論提早抵達或延遲退房，請洽櫃台。</t>
-  </si>
-  <si>
-    <t>延遲退房需加價，續住則依當日房價。請洽櫃台報價喔！</t>
-  </si>
-  <si>
-    <t>依房況調整，提早入住、晚入住或延遲退房需加價，請洽櫃台報價。</t>
-  </si>
-  <si>
-    <t>不好意思，這裡沒有提供短時休息服務。</t>
-  </si>
-  <si>
-    <t>請向櫃台索取，一偶的連通道密碼會提供給您。</t>
-  </si>
-  <si>
     <t>可，請洽櫃台登記。</t>
   </si>
   <si>
-    <t>退房時間：隔天上午11:00，若需延長停車，請洽櫃台。</t>
-  </si>
-  <si>
-    <t>依房況調整，需加價，請洽櫃台。</t>
-  </si>
-  <si>
-    <t>5歲以下不佔床免費，超過部分需要加價，請留意。</t>
-  </si>
-  <si>
     <t>官網最優惠，雙人房約NT$3,000起。</t>
   </si>
   <si>
-    <t>品味套房、老爺套房有浴缸。</t>
-  </si>
-  <si>
-    <t>住宿發票可開統編，部分專案含早餐，訂房時請確認。</t>
-  </si>
-  <si>
     <t>視券面規定，請洽櫃台。</t>
   </si>
   <si>
-    <t>視券面規定，請洽櫃台以查詢是否可折抵。</t>
-  </si>
-  <si>
-    <t>訂房時請確認官網或特定平台是否有合作，可一同加訂高鐵票喔！</t>
-  </si>
-  <si>
-    <t>部分平台有合作，請訂房時確認。</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦幾間附近的餐廳：您好，請問平日的午餐券在假日也可以使用嗎？ 視券面規定，請洽櫃台。 另外，您也可以考慮卓仔麵店，約500公尺，以每日手工現作的麵條聞名，紅燒牛肉麵和榨菜麵都非常受歡迎。或是西羅殿牛肉湯，約1000公尺，米其林必比登推薦的台南老字號牛肉湯店，主打新鮮的台灣溫體牛肉。若需更多資訊，請洽櫃台協助。</t>
-  </si>
-  <si>
     <t>依券面規定，請洽餐廳。</t>
   </si>
   <si>
-    <t>有壽星、長者優惠，請洽餐廳或官網查詢。</t>
-  </si>
-  <si>
-    <t>依官網公告，特殊節日的殘費費用計算方式請參考台南老爺行旅官網。</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦幾間附近的餐廳：午餐卓仔麵店營業至14:00，晚餐西羅殿牛肉湯營業至21:00，兩間都非常美味喔！</t>
-  </si>
-  <si>
-    <t>依官網公告，兒童有專屬價格，無法不點餐。</t>
-  </si>
-  <si>
-    <t>可，請提前告知櫃台，我們會幫您準備餐盒。謝謝您！</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦幾間附近的餐廳：您可至官網或現場查詢菜單，附近有水缸豆花（約2.5公里），以獨特的水缸裝盛方式和純手工製作的豆花聞名，還有寶芝林燻茶鵝（約2.7公里），以蜂蜜汁燻茶鵝聞名，若想品嚐優質牛排，可至轉角餐廳 Corner Steak House（約3.2公里），享受碳烤牛排的美味。</t>
-  </si>
-  <si>
-    <t>有，請洽餐廳或參考官網上的資訊喔！</t>
-  </si>
-  <si>
-    <t>您好，歡迎加入台南老爺行旅會員！請至官網線上註冊，即可享有專屬優惠與禮遇喔！</t>
-  </si>
-  <si>
-    <t>您好，歡迎加入台南老爺行旅會員！請至官網線上註冊，享有專屬優惠及生日禮喔！</t>
-  </si>
-  <si>
     <t>有，請參考官網或致電洽詢。</t>
   </si>
   <si>
-    <t>您好，很高興為您推薦幾間附近的餐廳：您可以協助，請洽櫃台。距離約500公尺的卓仔麵店以手工麵條聞名，紅燒牛肉麵和榨菜麵都非常受歡迎。距離約1000公尺的西羅殿牛肉湯則有米其林推薦，主打新鮮溫體牛肉。距離約1公里的是黃家蝦捲，傳承五十年的經典台南小吃，蝦捲和魚丸脆肉湯都值得一試。</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦幾間附近的餐廳：可協助，請洽櫃台，我們很樂意為您代收外送餐點。您也可以考慮街役場古蹟餐坊，約1.2公里，蜜檸柚香燒豬肋排和麻辣橄欖鍋都很受歡迎。另外阿財牛肉湯，約6.7公里，頂級牛肉湯也值得一試。</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦幾間附近的餐廳：可協助，請洽櫃台，並提供包裹寄送或收取服務。距離舞鶴燒烤舖約2.7公里，推薦烤新鮮鰻魚和火烤雞腿排，營業時間週一至週日 18:00–01:00。瑞珍蝦仁餛飩約3.6公里，營業時間星期一至五 10:00-19:00，六、日 10:00-20:00。龍門客棧餐廳約4.1公里，營業時間為每週一至週日09:00-17</t>
-  </si>
-  <si>
-    <t>請直接洽詢飯店櫃台（06-2361680），服務人員會協助指引車位或提供臨時停車協助。</t>
-  </si>
-  <si>
-    <t>可以代叫計程車，刷卡依車行規定。</t>
-  </si>
-  <si>
-    <t>汽車館內消費滿一千元可折抵一小時，最高六小時（同一車牌）。退房後需主動洽詢櫃台，依停車場狀況彈性處理。</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦幾間附近的餐廳：目前沒有提供免費接駁車服務，建議您搭乘高鐵快捷公車或計程車前往，距離約8公里，或是直接請洽詢櫃台協助安排交通喔。</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦幾間附近的餐廳：您可以在南紡購物中心內找到便利商店，附近還有卓仔麵店，約500公尺，以手工麵條聞名，紅燒牛肉麵和榨菜麵都非常受歡迎。另外，西羅殿牛肉湯，約1000公尺，也是米其林必比登推薦的牛肉湯店，口味獨特。若需要集點，建議洽詢櫃台協助。</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦幾間附近的餐廳：距離市區約4.4公里的是新龍莊土雞城，經營25年，專注於新鮮土雞及黑骨雞料理，黑骨鹽焗雞必點！另外，距離約3.9公里的小公園擔仔麵，湯頭鮮甜，是府城美食代表。若想品嚐創意料理，約43.4公里的Mr.Wheat 小麥先生創意料理也很受歡迎。若需更多資訊，歡迎洽詢櫃台。</t>
-  </si>
-  <si>
-    <t>您好，很高興為您推薦幾間附近的餐廳和景點：老爺車站-乳牛的家距離約3.2公里，是結合酪農體驗與美食的親子農場，提供濃郁的牛奶火鍋和鮮奶酪，還有可愛的草泥馬，非常適合親子同遊。另外，老鄉長景觀餐廳約41.3公里，以其優美的自然景觀和樸實的家常菜聞名。若您想了解更多親子餐廳和景點，建議您洽詢櫃台。</t>
-  </si>
-  <si>
-    <t>無法回答。僅開放導盲犬入住，恕無法接待寵物。</t>
-  </si>
-  <si>
-    <t>無法回答。我們目前僅開放導盲犬入住，無法接待寵物。</t>
-  </si>
-  <si>
     <t>部分展覽對外開放，詳細資訊請洽櫃台。</t>
   </si>
   <si>
-    <t>無法回答。建議您使用YouBike。</t>
+    <t>請問這裡有三溫暖游泳池、兒童遊戲室和健身房嗎?</t>
+  </si>
+  <si>
+    <t>請問這裡有KTV或麻將可以玩嗎?</t>
+  </si>
+  <si>
+    <t>請問這裡有提款機嗎?</t>
+  </si>
+  <si>
+    <t>請問你們這裡有商務中心嗎?</t>
+  </si>
+  <si>
+    <t>請問健身房和洗衣房在哪裡?還有飲水機的位置也能告訴我嗎?謝謝</t>
+  </si>
+  <si>
+    <t>請問房間有浴缸嗎?</t>
+  </si>
+  <si>
+    <t>請問房間床上方的那個黑色木櫃是什麼呢?</t>
+  </si>
+  <si>
+    <t>請問如果枕頭太硬或太軟的話呢不能換一個呢?</t>
+  </si>
+  <si>
+    <t>請問這裡有沒有免治馬桶呢?</t>
+  </si>
+  <si>
+    <t>請問這個地方有窗戶對外嗎?</t>
+  </si>
+  <si>
+    <t>請問客房的電視可以看Netflix、Disney Plus 和愛奇藝等串流平臺嗎?</t>
+  </si>
+  <si>
+    <t>請問我的房卡無法使用這是怎麼回事呢?</t>
+  </si>
+  <si>
+    <t>您好 我在客房遇到一些問題 想請教一下 電視和廁所好像無法使用 客房的WiFi也沒有信號 還有電動窗簾似乎故障了 能幫我看看怎麼處理嗎 謝謝</t>
+  </si>
+  <si>
+    <t>請問家庭房可以加床嗎?</t>
+  </si>
+  <si>
+    <t>請問早餐通常在哪裡享用呢?</t>
+  </si>
+  <si>
+    <t>請問早餐是在什麼樓層提供的?時間是幾點到幾點?我該怎麼進入用餐區呢?</t>
+  </si>
+  <si>
+    <t>請問那裡有可以使用的舞台嗎?</t>
+  </si>
+  <si>
+    <t>請問現場的樂團能提供音響設備嗎?謝謝</t>
+  </si>
+  <si>
+    <t>請問在餐廳舉辦活動的話有沒有相關的指引或迎賓海報可以參考呢?</t>
+  </si>
+  <si>
+    <t>請問會議室最多可以擺幾張桌子呢?</t>
+  </si>
+  <si>
+    <t>請問會議是有提供哪些不同的會議桌型呢?</t>
+  </si>
+  <si>
+    <t>請問 會議室裡有投影設備嗎?我使用的是 Apple 電腦 能連接上去嗎?</t>
+  </si>
+  <si>
+    <t>請問會議是最多可以擺幾張桌子呢?</t>
+  </si>
+  <si>
+    <t>請問這家飯店有合作的停車場嗎?停車方式是怎麼樣的呢?</t>
+  </si>
+  <si>
+    <t>請問要怎樣才能找到停車場的入口呢?</t>
+  </si>
+  <si>
+    <t>請問如果遇到停車排隊的情況 我該怎麼辦呢?</t>
+  </si>
+  <si>
+    <t>請問飯店有提供高鐵或火車站的接駁車嗎?我該怎麼搭乘呢?</t>
+  </si>
+  <si>
+    <t>請問飯店附近有U-bike 可以租借嗎?還有租機車的地方嗎?</t>
+  </si>
+  <si>
+    <t>請問我到餐廳用餐的時候 車子應該停在哪裡呢? 附近有合作的停車場嗎?</t>
+  </si>
+  <si>
+    <t>請問從南訪怎麼去餐廳呢?</t>
+  </si>
+  <si>
+    <t>請問從飯店到高鐵站要怎麼走呢?</t>
+  </si>
+  <si>
+    <t>請問這裡有吸煙區嗎?</t>
+  </si>
+  <si>
+    <t>請問附近有沒有便利商店呢?</t>
+  </si>
+  <si>
+    <t>請問最近的夜市在哪裡呢?</t>
+  </si>
+  <si>
+    <t>請問飯店的逃生路線在哪裡呢?我可以走樓梯到五樓餐廳嗎?</t>
+  </si>
+  <si>
+    <t>我想請問一下 房間的清潔度似乎不太好 能幫我解決這個問題嗎?</t>
+  </si>
+  <si>
+    <t>請問一下 房間裡面怎麼黏網呢?</t>
+  </si>
+  <si>
+    <t>您好 我注意到我的客房裡有些異味 請問能否幫我解決這個問題呢?謝謝</t>
+  </si>
+  <si>
+    <t>請問貝平可以免費拿嗎?</t>
+  </si>
+  <si>
+    <t>請問如果客房清潔的不夠乾淨 我應該通知誰來處理呢?</t>
+  </si>
+  <si>
+    <t>請問客房裡沒有礦泉水 我該怎麼解決喝水的問題呢?</t>
+  </si>
+  <si>
+    <t>請問我可以在中午的時候先入住嗎?</t>
+  </si>
+  <si>
+    <t>請問我可以延遲退房嗎?這樣會有什麼額外的費用呢?如果我想再多住一晚,價格大概是多少呢?</t>
+  </si>
+  <si>
+    <t>請問你們這裡有提供休息的服務嗎?</t>
+  </si>
+  <si>
+    <t>請問退房後我還可以把車停在停車場嗎?</t>
+  </si>
+  <si>
+    <t>請問一下飯店的退房時間是幾點呢?</t>
+  </si>
+  <si>
+    <t>請問我可以稍微延遲退房時間嗎?</t>
+  </si>
+  <si>
+    <t>請問帶小孩入住的話需要額外付費嗎?</t>
+  </si>
+  <si>
+    <t>請問哪種芳心是有浴缸的呢?</t>
+  </si>
+  <si>
+    <t>請問過期的住宿券還能使用嗎?</t>
+  </si>
+  <si>
+    <t>請問我在預訂房間的時候怎麼可以一起加訂高鐵票呢?</t>
+  </si>
+  <si>
+    <t>請問我可以在訂房的時候加購高鐵遊會嗎?</t>
+  </si>
+  <si>
+    <t>請問平日的午餐券在假日也可以使用嗎?</t>
+  </si>
+  <si>
+    <t>如果我的餐券過期了 還能怎麼使用呢?</t>
+  </si>
+  <si>
+    <t>請問特殊節日的殘費是怎麼計算的呢?</t>
+  </si>
+  <si>
+    <t>請問午餐和晚餐的營業時間是什麼時候呢?</t>
+  </si>
+  <si>
+    <t>請問現場的餐費是怎麼計算的?小孩可以不點餐嗎?</t>
+  </si>
+  <si>
+    <t>請問餐券和優惠該怎麼使用呢?</t>
+  </si>
+  <si>
+    <t>請問如果有家人不能一起用早餐,能不能幫我打包餐盒呢?謝謝</t>
+  </si>
+  <si>
+    <t>請問可以提供一下菜單的參考嗎?謝謝!</t>
+  </si>
+  <si>
+    <t>檢問有沒有針對生日的餐飲優惠呢?</t>
+  </si>
+  <si>
+    <t>請問我該怎麼做才能成為你們的會員呢?</t>
+  </si>
+  <si>
+    <t>請問我該怎麼加入你們的飯店會員呢?會員有什麼優惠可以享受呢?</t>
+  </si>
+  <si>
+    <t>請問有沒有針對壽星的住房優惠呢?</t>
+  </si>
+  <si>
+    <t>請問有沒有壽星的餐飲優惠呢?</t>
+  </si>
+  <si>
+    <t>請問能幫我教外送嗎?我想嘗試當地美食。</t>
+  </si>
+  <si>
+    <t>請問飯店是否可以幫我代收外送的餐點呢?</t>
+  </si>
+  <si>
+    <t>請問你們可以幫我寄送或收取包裹嗎?</t>
+  </si>
+  <si>
+    <t>如果停車場遇到塞車或找不到停車位 我該怎麼辦呢?</t>
+  </si>
+  <si>
+    <t>請問飯店可以幫我叫計程車嗎?而且我可以用信用卡付款嗎?</t>
+  </si>
+  <si>
+    <t>請問飯店的停車方式是怎麼樣的呢?退房的時候有沒有時間可以折抵停車費用?最晚可以折抵到幾點呢?</t>
+  </si>
+  <si>
+    <t>請問高鐵站或火車站有提供免費接駁車嗎?</t>
+  </si>
+  <si>
+    <t>請問飯店附近有沒有便利商店呢?還有推薦的美食小吃或集點嗎?謝謝!</t>
+  </si>
+  <si>
+    <t>請問這裡離市區近嗎?附近有什麼景點或美食推薦嗎?</t>
+  </si>
+  <si>
+    <t>請問老爺附近有哪些適合親子用餐的餐廳和推薦的親子遊玩景點呢?</t>
+  </si>
+  <si>
+    <t>請問你們可以接待寵物入住嗎?</t>
+  </si>
+  <si>
+    <t>請問這裡是否歡迎帶寵物呢?</t>
+  </si>
+  <si>
+    <t>請問這個展覽是對外開放的嗎?</t>
+  </si>
+  <si>
+    <t>請問這裡有提供腳踏車租借的服務嗎?</t>
+  </si>
+  <si>
+    <t>請問南方連通門在哪裡呢?另外客房和大廳的Wi-Fi密碼是多少呢?謝謝</t>
   </si>
   <si>
     <t>請問飯店有哪些設施可以讓我們使用呢?</t>
-  </si>
-  <si>
-    <t>請問這裡有三溫暖游泳池、兒童遊戲室和健身房嗎?</t>
-  </si>
-  <si>
-    <t>請問這裏有電動車充電站嗎?</t>
-  </si>
-  <si>
-    <t>請問這裡有KTV或麻將可以玩嗎?</t>
-  </si>
-  <si>
-    <t>請問這裡有提款機嗎?</t>
-  </si>
-  <si>
-    <t>請問這裡有洗衣設備嗎?</t>
-  </si>
-  <si>
-    <t>請問這裡有提供醫護送喜福物嗎?</t>
-  </si>
-  <si>
-    <t>請問你們這裡有商務中心嗎?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飯店提供輕型健身房、自助洗衣房、甘情商號設計產品店、甘粹義式餐廳、廿一酒吧、回甘咖啡及120坪展覽空間。</t>
+  </si>
+  <si>
+    <t>有輕型健身房，具體位置需向櫃台查詢。</t>
+  </si>
+  <si>
+    <t>請問這裡有電動車充電站嗎?</t>
+  </si>
+  <si>
+    <t>南紡購物中心停車場可能提供電動車充電樁，數量有限，建議聯繫飯店或停車場管理處確認。</t>
+  </si>
+  <si>
+    <t>抱歉，目前無法回答此問題，建議洽詢櫃檯人員。</t>
+  </si>
+  <si>
+    <t>飯店內無，南紡購物中心內有多台提款機。</t>
+  </si>
+  <si>
+    <t>請問這裏有起儀設備嗎?</t>
+  </si>
+  <si>
+    <t>飯店內有提供起霧設備。</t>
+  </si>
+  <si>
+    <t>請問這裡有提供醫護送喜福嗎?</t>
+  </si>
+  <si>
+    <t>有，大廳內設有廁所供您使用。</t>
+  </si>
+  <si>
+    <t>健身房、洗衣房位於指定樓層，請洽櫃台指引，飲水機設於各客房樓層參考。</t>
+  </si>
+  <si>
+    <t>請問回甘咖啡的營業時間是什麼呢?</t>
+  </si>
+  <si>
+    <t>回甘咖啡 10:00-18:00。</t>
+  </si>
+  <si>
+    <t>連通門位於一樓，Wi-Fi密碼請向櫃台索取。</t>
+  </si>
+  <si>
+    <t>請問泡面積怎麼使用啊?還有我該怎麼買客房商品呢?</t>
+  </si>
+  <si>
+    <t>泡麵機於指定樓層投幣購買，客房商品可於櫃台或「甘情商號」購買。</t>
+  </si>
+  <si>
+    <t>部分房型如品味套房、老爺套房有浴缸。</t>
+  </si>
+  <si>
+    <t>房間床上方的黑色木櫃是為了設計裝飾或提供收納空間。</t>
+  </si>
+  <si>
+    <t>可，提供多款枕頭可供選擇，請洽櫃台參考。</t>
+  </si>
+  <si>
+    <t>全館標配免治馬桶，您會非常方便喔！</t>
+  </si>
+  <si>
+    <t>全館客房皆有大片對外窗，您會喜歡。</t>
+  </si>
+  <si>
+    <t>部分房型支援，建議入住前請向我們確認喔。</t>
+  </si>
+  <si>
+    <t>請即時聯繫櫃台協助處理您的房卡問題。</t>
+  </si>
+  <si>
+    <t>好的，請您放心，我會立即聯繫工程部協助處理您的問題，讓您有個舒適的入住體驗。</t>
+  </si>
+  <si>
+    <t>家庭房可加床，需提前預約，數量有限喔。</t>
+  </si>
+  <si>
+    <t>早餐供應於本館五樓「甘粹餐廳」。</t>
+  </si>
+  <si>
+    <t>早餐在5樓「甘粹餐廳」，06:30-10:00憑房卡進入用餐區。</t>
+  </si>
+  <si>
+    <t>會，請事先預約即可提供音響設備。</t>
+  </si>
+  <si>
+    <t>可協助製作，請提前洽詢。</t>
+  </si>
+  <si>
+    <t>甘粹會議室最多可容納120人，U型、教室型桌型皆可彈性調整。</t>
+  </si>
+  <si>
+    <t>會議室可依需求變更桌型，包含U型、教室型、劇院型等，歡迎洽詢專人協助規劃。</t>
+  </si>
+  <si>
+    <t>會議室有投影設備，Apple 電腦支援多種連接方式，您可以輕鬆連接使用。</t>
+  </si>
+  <si>
+    <t>甘粹會議室最多可容納120人，桌型可彈性調整。</t>
+  </si>
+  <si>
+    <t>我們有合作南紡購物中心地下停車場，住客可免費停車，消費可折抵。</t>
+  </si>
+  <si>
+    <t>請問停車場的繳廢機一直顯示我還需要繳廢 這是怎麼回事呢?</t>
+  </si>
+  <si>
+    <t>請持停車票卡至櫃台消磁或洽詢。</t>
+  </si>
+  <si>
+    <t>抱歉，飯店沒有提供接駁車，建議您搭乘快捷公車或計程車前往高鐵站約20分鐘。</t>
+  </si>
+  <si>
+    <t>飯店附近有YouBike站點及多家機車行，您可以直接前往使用。</t>
+  </si>
+  <si>
+    <t>您可以在南紡購物中心地下停車場停放，消費可折抵。</t>
+  </si>
+  <si>
+    <t>由連通門進入，搭乘電梯至5樓。</t>
+  </si>
+  <si>
+    <t>建議您搭乘高鐵快捷公車或計程車前往，約需20分鐘。</t>
+  </si>
+  <si>
+    <t>請問我該怎麼去南方購物中心?</t>
+  </si>
+  <si>
+    <t>您從一樓連通門步行即可到達南方購物中心。</t>
+  </si>
+  <si>
+    <t>南紡購物中心內有便利商店，周邊也有喔。</t>
+  </si>
+  <si>
+    <t>最近的夜市有花園夜市、武聖夜市、東門夜市，車程10-15分鐘。</t>
+  </si>
+  <si>
+    <t>好的，請您放心，我會協助您向櫃台反映並加強清潔，或是協助您換房。</t>
+  </si>
+  <si>
+    <t>請問如果客房有異味或不夠乾淨的問題 我可以退房嗎?還有如果房間太小的話也能進行調換嗎?謝謝</t>
+  </si>
+  <si>
+    <t>當然可以，依房況調整，請洽櫃台協助處理。</t>
+  </si>
+  <si>
+    <t>全館提供免費WiFi，請向櫃台索取密碼喔。</t>
+  </si>
+  <si>
+    <t>您好，請協助櫃台處理或更換房間，我們會盡力為您解決異味問題。</t>
+  </si>
+  <si>
+    <t>請問你們有提供嬰兒用品嗎?比如嬰兒床、棗盆、窗房和小骨度鍋等。還有一次性備品也有提供的嗎?謝謝!</t>
+  </si>
+  <si>
+    <t>抱歉，我們目前沒有提供嬰兒床、澡盆、窗房或消毒鍋等嬰兒用品，一次性備品也無法提供。</t>
+  </si>
+  <si>
+    <t>基本備品免費，特殊需求請洽櫃台。</t>
+  </si>
+  <si>
+    <t>請聯繫櫃台協助處理。</t>
+  </si>
+  <si>
+    <t>每日提供瓶裝水，飲水機設於各樓層，您可以輕鬆補充。</t>
+  </si>
+  <si>
+    <t>您好 我能請你幫我送六瓶礦泉水到我的房間嗎?謝謝</t>
+  </si>
+  <si>
+    <t>當然可以，請致電櫃台協助您安排。</t>
+  </si>
+  <si>
+    <t>請問你們的館內有提供健身服、旁服等設施嗎?</t>
+  </si>
+  <si>
+    <t>有輕型健身房，需提前預約，並提供健身服。</t>
+  </si>
+  <si>
+    <t>請問如果我提前遞打的話可以把行李寄放在這裡嗎?另外退房的時候也可以一起寄放行李嗎?謝謝</t>
+  </si>
+  <si>
+    <t>當然可以，請洽櫃台協助您寄放行李。</t>
+  </si>
+  <si>
+    <t>依房況調整，請洽櫃台提供更詳細的延遲退房費用及續住價格喔。</t>
+  </si>
+  <si>
+    <t>您好 我想了解一下有沒有可能提早入住或較晚入住的選項呢?另外是否可以延遲退房呢?還有收費的方式是怎麼樣的呢?謝謝</t>
+  </si>
+  <si>
+    <t>依房況調整，請洽櫃台提供相關方案及收費方式喔。</t>
+  </si>
+  <si>
+    <t>抱歉，這裡沒有提供短時休息服務。</t>
+  </si>
+  <si>
+    <t>請問一樓的連通道密碼是什麼呢?謝謝!</t>
+  </si>
+  <si>
+    <t>一樓的連通道密碼請向櫃台索取。</t>
+  </si>
+  <si>
+    <t>退房時間：隔天上午11:00，酒店提供入住前和退房後的行李寄放服務。</t>
+  </si>
+  <si>
+    <t>依房況調整，請洽櫃台報價。</t>
+  </si>
+  <si>
+    <t>5歲以下不佔床需要加價，超過部分則需額外支付費用。</t>
+  </si>
+  <si>
+    <t>請問台南老爺酒店有什麼最優惠的訂房房式呢?房價大概是多少?</t>
+  </si>
+  <si>
+    <t>品味套房、老爺套房都有浴缸。</t>
+  </si>
+  <si>
+    <t>您好 我想預定下一筆住宿。請問住宿發票可以開統一編號嗎?另外我需要住宿證明,這個房價有包含早餐嗎?謝謝</t>
+  </si>
+  <si>
+    <t>住宿發票可開統一編號，部分專案含早餐，請訂房時確認住宿證明。</t>
+  </si>
+  <si>
+    <t>請問過期的住宿券可以怎麼用來抵扣防費呢?</t>
+  </si>
+  <si>
+    <t>視券面規定，請洽櫃台處理。</t>
+  </si>
+  <si>
+    <t>訂房時請確認官網或特定平台是否有合作，可一同加購高鐵票。</t>
+  </si>
+  <si>
+    <t>官網或特定平台有合作，請訂房時確認。</t>
+  </si>
+  <si>
+    <t>視券面規定，請洽餐廳。</t>
+  </si>
+  <si>
+    <t>請問對於老人家有什麼特別的遊會嗎?還有生日的時候會有什麼樣的遊會呢?</t>
+  </si>
+  <si>
+    <t>有壽星、長者優惠，請洽餐廳或官網。</t>
+  </si>
+  <si>
+    <t>依官網公告收費，請參考相關資訊。</t>
+  </si>
+  <si>
+    <t>午餐營業時間在中午到下午，晚餐營業時間在晚上。</t>
+  </si>
+  <si>
+    <t>依官網公告，兒童有專屬價格，餐費計算方式請參考官網公告。</t>
+  </si>
+  <si>
+    <t>可，請提前告知櫃檯以便安排打包餐盒給您。</t>
+  </si>
+  <si>
+    <t>官網與現場皆可查詢。</t>
+  </si>
+  <si>
+    <t>有，請洽餐廳或官網查詢生日餐飲優惠方案。</t>
+  </si>
+  <si>
+    <t>您可以在官網線上註冊，即可享有專屬優惠、積點和生日禮喔！</t>
+  </si>
+  <si>
+    <t>您可以在官網線上註冊，享有專屬優惠、積點及生日禮喔！</t>
+  </si>
+  <si>
+    <t>可協助，請洽櫃台，讓他們幫您安排外送服務，品嚐台南美食吧！</t>
+  </si>
+  <si>
+    <t>是的，可以，請事先通知櫃台。</t>
+  </si>
+  <si>
+    <t>當然可以，請洽櫃台協助處理喔！</t>
+  </si>
+  <si>
+    <t>停車場若遇塞車或找不到位置，請直接洽詢飯店櫃台協助。</t>
+  </si>
+  <si>
+    <t>可代叫計程車，刷卡依車行規定，請事先告知櫃台。</t>
+  </si>
+  <si>
+    <t>館內消費滿一千可折抵停車費，最高六小時，退房後若需延長停車，請洽櫃台彈性處理。</t>
+  </si>
+  <si>
+    <t>非常抱歉，我們沒有提供高鐵或火車站的免費接駁車服務，建議您搭乘快捷公車或計程車。</t>
+  </si>
+  <si>
+    <t>南紡購物中心內有便利商店，附近還有許多美食小吃，您可以盡情探索台南的美味喔！</t>
+  </si>
+  <si>
+    <t>位於台南市區，交通便利，南紡購物中心內有超商，附近有多家小吃與景點。</t>
+  </si>
+  <si>
+    <t>酒店鄰近南紡購物中心、奧斯丁夢想樂園等景點。可洽櫃台索取推薦。</t>
+  </si>
+  <si>
+    <t>非常抱歉，我們無法接待寵物入住，僅開放導盲犬入住。</t>
+  </si>
+  <si>
+    <t>這裡無法接待寵物，僅開放導盲犬入住。</t>
+  </si>
+  <si>
+    <t>這裡有YouBike租借服務，以及附近多家機車行可供選擇。</t>
   </si>
   <si>
     <t>請問大廳裡有廁所嗎?</t>
-  </si>
-  <si>
-    <t>請問健身房和洗衣房在哪裡?還有飲水機的位置也能告訴我嗎?謝謝</t>
-  </si>
-  <si>
-    <t>請問泡面機怎麼使用啊?還有我該怎麼買客房商品呢?</t>
-  </si>
-  <si>
-    <t>請問房間有浴缸嗎?</t>
-  </si>
-  <si>
-    <t>請問房間床上方的那個黑色木櫃是什麼呢?</t>
-  </si>
-  <si>
-    <t>請問如果枕頭太硬或太軟的話呢不能換一個呢?</t>
-  </si>
-  <si>
-    <t>請問這裡有沒有免治馬桶呢?</t>
-  </si>
-  <si>
-    <t>請問這個地方有窗戶對外嗎?</t>
-  </si>
-  <si>
-    <t>請問客房的電視可以看Netflix、Disney Plus 和愛奇藝等串流平臺嗎?</t>
-  </si>
-  <si>
-    <t>請問我的房卡無法使用這是怎麼回事呢?</t>
-  </si>
-  <si>
-    <t>您好 我在客房遇到一些問題 想請教一下 電視和廁所好像無法使用 客房的WiFi也沒有信號 還有電動窗簾似乎故障了 能幫我看看怎麼處理嗎 謝謝</t>
-  </si>
-  <si>
-    <t>請問家庭房可以加床嗎?</t>
-  </si>
-  <si>
-    <t>請問早餐通常在哪裡享用呢?</t>
-  </si>
-  <si>
-    <t>請問早餐是在什麼樓層提供的?時間是幾點到幾點?我該怎麼進入用餐區呢?</t>
-  </si>
-  <si>
-    <t>請問那裡有可以使用的舞台嗎?</t>
-  </si>
-  <si>
-    <t>請問現場的樂團能提供音響設備嗎?謝謝</t>
-  </si>
-  <si>
-    <t>請問在餐廳舉辦活動的話有沒有相關的指引或迎賓海報可以參考呢?</t>
-  </si>
-  <si>
-    <t>請問會議室最多可以擺幾張桌子呢?</t>
-  </si>
-  <si>
-    <t>請問會議是有提供哪些不同的會議桌型呢?</t>
-  </si>
-  <si>
-    <t>請問 會議室裡有投影設備嗎?我使用的是 Apple 電腦 能連接上去嗎?</t>
-  </si>
-  <si>
-    <t>請問會議是最多可以擺幾張桌子呢?</t>
-  </si>
-  <si>
-    <t>請問這家飯店有合作的停車場嗎?停車方式是怎麼樣的呢?</t>
-  </si>
-  <si>
-    <t>請問要怎樣才能找到停車場的入口呢?</t>
-  </si>
-  <si>
-    <t>請問如果遇到停車排隊的情況 我該怎麼辦呢?</t>
-  </si>
-  <si>
-    <t>請問停車場的繳費機一直顯示我還需要繳費這是怎麼回事呢?</t>
-  </si>
-  <si>
-    <t>請問飯店有提供高鐵或火車站的接駁車嗎?我該怎麼搭乘呢?</t>
-  </si>
-  <si>
-    <t>請問飯店附近有U-bike 可以租借嗎?還有租機車的地方嗎?</t>
-  </si>
-  <si>
-    <t>請問我到餐廳用餐的時候 車子應該停在哪裡呢? 附近有合作的停車場嗎?</t>
-  </si>
-  <si>
-    <t>請問從南訪怎麼去餐廳呢?</t>
-  </si>
-  <si>
-    <t>請問從飯店到高鐵站要怎麼走呢?</t>
-  </si>
-  <si>
-    <t>請問我該路怎麼去南坊購物中心?</t>
-  </si>
-  <si>
-    <t>請問這裡有吸煙區嗎?</t>
-  </si>
-  <si>
-    <t>請問附近有沒有便利商店呢?</t>
-  </si>
-  <si>
-    <t>請問最近的夜市在哪裡呢?</t>
-  </si>
-  <si>
-    <t>請問飯店的逃生路線在哪裡呢?我可以走樓梯到五樓餐廳嗎?</t>
-  </si>
-  <si>
-    <t>我想請問一下 房間的清潔度似乎不太好 能幫我解決這個問題嗎?</t>
-  </si>
-  <si>
-    <t>請問如果客房有意外或不夠乾淨的問題 我可以退房嗎?還有如果房間太小的話 也能進行調換嗎?謝謝</t>
-  </si>
-  <si>
-    <t>請問一下 房間裡面怎麼黏網呢?</t>
-  </si>
-  <si>
-    <t>您好 我注意到我的客房裡有些異味 請問能否幫我解決這個問題呢?謝謝</t>
-  </si>
-  <si>
-    <t>請問你們有提供嬰兒用品嗎? 比如嬰兒床、澡盆、窗房和小谷都鍋等。還有一次性備品也有提供的嗎?謝謝!</t>
-  </si>
-  <si>
-    <t>請問貝平可以免費拿嗎?</t>
-  </si>
-  <si>
-    <t>請問如果客房清潔的不夠乾淨 我應該通知誰來處理呢?</t>
-  </si>
-  <si>
-    <t>請問客房裡沒有礦泉水 我該怎麼解決喝水的問題呢?</t>
-  </si>
-  <si>
-    <t>您好,我能請你幫我送六瓶礦泉水到我的房間嗎?謝謝。</t>
-  </si>
-  <si>
-    <t>請問你們的館內有提供健身服、康服等設施嗎?</t>
-  </si>
-  <si>
-    <t>請問我可以在中午的時候先入住嗎?</t>
-  </si>
-  <si>
-    <t>請問如果我提前遞達的話可以把行李寄放在這裡嗎?另外退訪的時候也可以一起寄放行李嗎?謝謝</t>
-  </si>
-  <si>
-    <t>請問我可以延遲退房嗎?這樣會有什麼額外的費用呢?如果我想再多住一晚,價格大概是多少呢?</t>
-  </si>
-  <si>
-    <t>你好 我想了解一下有沒有可能提早入住或較晚入住的選項呢?另外是否可以延遲退房呢?還有收費的方式是怎麼樣的呢?謝謝!</t>
-  </si>
-  <si>
-    <t>請問你們這裡有提供休息的服務嗎?</t>
-  </si>
-  <si>
-    <t>請問一偶的連通道密碼是什麼呢?謝謝!</t>
-  </si>
-  <si>
-    <t>請問退房後我還可以把車停在停車場嗎?</t>
-  </si>
-  <si>
-    <t>請問一下飯店的退房時間是幾點呢?</t>
-  </si>
-  <si>
-    <t>請問我可以稍微延遲退房時間嗎?</t>
-  </si>
-  <si>
-    <t>請問帶小孩入住的話需要額外付費嗎?</t>
-  </si>
-  <si>
-    <t>請問台南老爺酒店有什麼最優惠的訂房房式呢? 房價大概是多少?</t>
-  </si>
-  <si>
-    <t>請問哪種芳心是有浴缸的呢?</t>
-  </si>
-  <si>
-    <t>您好 我想預定下一筆住宿。請問住宿發票可以開統一編號嗎?另外我需要住宿證明這個房價有包含早餐嗎?謝謝</t>
-  </si>
-  <si>
-    <t>請問過期的住宿券還能使用嗎?</t>
-  </si>
-  <si>
-    <t>請問過期的住宿券可以怎麼用來抵扣防備呢?</t>
-  </si>
-  <si>
-    <t>請問我在預訂房間的時候怎麼可以一起加訂高鐵票呢?</t>
-  </si>
-  <si>
-    <t>請問我可以在訂房的時候加購高鐵遊會嗎?</t>
-  </si>
-  <si>
-    <t>請問平日的午餐券在假日也可以使用嗎?</t>
-  </si>
-  <si>
-    <t>如果我的餐券過期了 還能怎麼使用呢?</t>
-  </si>
-  <si>
-    <t>請問對於老人家有什麼特別的優惠嗎?還有生日的時候會有什麼樣的優惠呢?</t>
-  </si>
-  <si>
-    <t>請問特殊節日的殘費是怎麼計算的呢?</t>
-  </si>
-  <si>
-    <t>請問午餐和晚餐的營業時間是什麼時候呢?</t>
-  </si>
-  <si>
-    <t>請問現場的餐費是怎麼計算的?小孩可以不點餐嗎?</t>
-  </si>
-  <si>
-    <t>請問餐券和優惠該怎麼使用呢?</t>
-  </si>
-  <si>
-    <t>請問如果有家人不能一起用早餐,能不能幫我打包餐盒呢?謝謝</t>
-  </si>
-  <si>
-    <t>請問可以提供一下菜單的參考嗎?謝謝!</t>
-  </si>
-  <si>
-    <t>檢問有沒有針對生日的餐飲優惠呢?</t>
-  </si>
-  <si>
-    <t>請問我該怎麼做才能成為你們的會員呢?</t>
-  </si>
-  <si>
-    <t>請問我該怎麼加入你們的飯店會員呢?會員有什麼優惠可以享受呢?</t>
-  </si>
-  <si>
-    <t>請問有沒有針對壽星的住房優惠呢?</t>
-  </si>
-  <si>
-    <t>請問有沒有壽星的餐飲優惠呢?</t>
-  </si>
-  <si>
-    <t>請問能幫我教外送嗎?我想嘗試當地美食。</t>
-  </si>
-  <si>
-    <t>請問飯店是否可以幫我代收外送的餐點呢?</t>
-  </si>
-  <si>
-    <t>請問你們可以幫我寄送或收取包裹嗎?</t>
-  </si>
-  <si>
-    <t>如果停車場遇到塞車或找不到停車位 我該怎麼辦呢?</t>
-  </si>
-  <si>
-    <t>請問飯店可以幫我叫計程車嗎?而且我可以用信用卡付款嗎?</t>
-  </si>
-  <si>
-    <t>請問飯店的停車方式是怎麼樣的呢?退房的時候有沒有時間可以折抵停車費用?最晚可以折抵到幾點呢?</t>
-  </si>
-  <si>
-    <t>請問高鐵站或火車站有提供免費接駁車嗎?</t>
-  </si>
-  <si>
-    <t>請問飯店附近有沒有便利商店呢?還有推薦的美食小吃或集點嗎?謝謝!</t>
-  </si>
-  <si>
-    <t>請問這裡離市區近嗎?附近有什麼景點或美食推薦嗎?</t>
-  </si>
-  <si>
-    <t>請問老爺附近有哪些適合親子用餐的餐廳和推薦的親子遊玩景點呢?</t>
-  </si>
-  <si>
-    <t>請問你們可以接待寵物入住嗎?</t>
-  </si>
-  <si>
-    <t>請問這裡是否歡迎帶寵物呢?</t>
-  </si>
-  <si>
-    <t>請問這個展覽是對外開放的嗎?</t>
-  </si>
-  <si>
-    <t>請問這裡有提供腳踏車租借的服務嗎?</t>
-  </si>
-  <si>
-    <t>請問南方連通門在哪裡呢?另外客房和大廳的Wi-Fi密碼是多少呢?謝謝</t>
-  </si>
-  <si>
-    <t>連通門位於一樓，WiFi密碼請向櫃台索取。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1366,11 +1368,6 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1401,17 +1398,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1694,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1725,10 +1717,10 @@
         <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -1739,10 +1731,10 @@
         <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1753,10 +1745,10 @@
         <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -1767,10 +1759,10 @@
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -1781,10 +1773,10 @@
         <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -1795,10 +1787,10 @@
         <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -1809,10 +1801,10 @@
         <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -1823,10 +1815,10 @@
         <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -1837,10 +1829,10 @@
         <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>400</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>307</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -1851,10 +1843,10 @@
         <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -1864,27 +1856,27 @@
       <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>214</v>
+      <c r="B12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" t="s">
+        <v>310</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1893,10 +1885,10 @@
         <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>313</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -1907,10 +1899,10 @@
         <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>222</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>314</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
@@ -1921,10 +1913,10 @@
         <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>315</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
@@ -1935,10 +1927,10 @@
         <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>316</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
@@ -1949,10 +1941,10 @@
         <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>317</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -1963,10 +1955,10 @@
         <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>21</v>
@@ -1977,10 +1969,10 @@
         <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>319</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
@@ -1991,10 +1983,10 @@
         <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="C21" t="s">
-        <v>222</v>
+        <v>320</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
@@ -2005,10 +1997,10 @@
         <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>319</v>
+        <v>229</v>
       </c>
       <c r="C22" t="s">
-        <v>223</v>
+        <v>321</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>24</v>
@@ -2019,10 +2011,10 @@
         <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="C23" t="s">
-        <v>224</v>
+        <v>322</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
@@ -2033,10 +2025,10 @@
         <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>323</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
@@ -2047,10 +2039,10 @@
         <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>322</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>324</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>27</v>
@@ -2061,10 +2053,10 @@
         <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>28</v>
@@ -2075,10 +2067,10 @@
         <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s">
-        <v>228</v>
+        <v>325</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>95</v>
@@ -2089,10 +2081,10 @@
         <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="C28" t="s">
-        <v>229</v>
+        <v>326</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>96</v>
@@ -2103,10 +2095,10 @@
         <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>97</v>
@@ -2117,10 +2109,10 @@
         <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>327</v>
+        <v>237</v>
       </c>
       <c r="C30" t="s">
-        <v>231</v>
+        <v>328</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>98</v>
@@ -2131,10 +2123,10 @@
         <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="C31" t="s">
-        <v>232</v>
+        <v>329</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>99</v>
@@ -2145,10 +2137,10 @@
         <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>329</v>
+        <v>239</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>330</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>100</v>
@@ -2159,10 +2151,10 @@
         <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="C33" t="s">
-        <v>234</v>
+        <v>331</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>101</v>
@@ -2173,10 +2165,10 @@
         <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>331</v>
+        <v>241</v>
       </c>
       <c r="C34" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>102</v>
@@ -2187,10 +2179,10 @@
         <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>332</v>
+        <v>242</v>
       </c>
       <c r="C35" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>103</v>
@@ -2201,10 +2193,10 @@
         <v>138</v>
       </c>
       <c r="B36" t="s">
+        <v>332</v>
+      </c>
+      <c r="C36" t="s">
         <v>333</v>
-      </c>
-      <c r="C36" t="s">
-        <v>237</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>94</v>
@@ -2215,10 +2207,10 @@
         <v>139</v>
       </c>
       <c r="B37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" t="s">
         <v>334</v>
-      </c>
-      <c r="C37" t="s">
-        <v>238</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>93</v>
@@ -2229,10 +2221,10 @@
         <v>140</v>
       </c>
       <c r="B38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" t="s">
         <v>335</v>
-      </c>
-      <c r="C38" t="s">
-        <v>239</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>92</v>
@@ -2243,10 +2235,10 @@
         <v>141</v>
       </c>
       <c r="B39" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" t="s">
         <v>336</v>
-      </c>
-      <c r="C39" t="s">
-        <v>240</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>91</v>
@@ -2257,10 +2249,10 @@
         <v>142</v>
       </c>
       <c r="B40" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" t="s">
         <v>337</v>
-      </c>
-      <c r="C40" t="s">
-        <v>241</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>90</v>
@@ -2271,10 +2263,10 @@
         <v>143</v>
       </c>
       <c r="B41" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" t="s">
         <v>338</v>
-      </c>
-      <c r="C41" t="s">
-        <v>242</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>89</v>
@@ -2288,7 +2280,7 @@
         <v>339</v>
       </c>
       <c r="C42" t="s">
-        <v>243</v>
+        <v>340</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>88</v>
@@ -2299,10 +2291,10 @@
         <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="C43" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>87</v>
@@ -2313,10 +2305,10 @@
         <v>146</v>
       </c>
       <c r="B44" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" t="s">
         <v>341</v>
-      </c>
-      <c r="C44" t="s">
-        <v>245</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>86</v>
@@ -2327,10 +2319,10 @@
         <v>147</v>
       </c>
       <c r="B45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C45" t="s">
         <v>342</v>
-      </c>
-      <c r="C45" t="s">
-        <v>246</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>85</v>
@@ -2341,10 +2333,10 @@
         <v>148</v>
       </c>
       <c r="B46" t="s">
-        <v>343</v>
+        <v>251</v>
       </c>
       <c r="C46" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>84</v>
@@ -2355,10 +2347,10 @@
         <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>344</v>
+        <v>252</v>
       </c>
       <c r="C47" t="s">
-        <v>248</v>
+        <v>343</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>83</v>
@@ -2369,10 +2361,10 @@
         <v>150</v>
       </c>
       <c r="B48" t="s">
+        <v>344</v>
+      </c>
+      <c r="C48" t="s">
         <v>345</v>
-      </c>
-      <c r="C48" t="s">
-        <v>249</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>82</v>
@@ -2383,10 +2375,10 @@
         <v>151</v>
       </c>
       <c r="B49" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" t="s">
         <v>346</v>
-      </c>
-      <c r="C49" t="s">
-        <v>250</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>81</v>
@@ -2397,10 +2389,10 @@
         <v>152</v>
       </c>
       <c r="B50" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" t="s">
         <v>347</v>
-      </c>
-      <c r="C50" t="s">
-        <v>251</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>80</v>
@@ -2414,7 +2406,7 @@
         <v>348</v>
       </c>
       <c r="C51" t="s">
-        <v>252</v>
+        <v>349</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>79</v>
@@ -2425,10 +2417,10 @@
         <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
       <c r="C52" t="s">
-        <v>253</v>
+        <v>350</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>78</v>
@@ -2439,10 +2431,10 @@
         <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="C53" t="s">
-        <v>254</v>
+        <v>351</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>77</v>
@@ -2453,10 +2445,10 @@
         <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="C54" t="s">
-        <v>255</v>
+        <v>352</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>76</v>
@@ -2467,10 +2459,10 @@
         <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C55" t="s">
-        <v>256</v>
+        <v>354</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>75</v>
@@ -2481,10 +2473,10 @@
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C56" t="s">
-        <v>257</v>
+        <v>356</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>74</v>
@@ -2495,10 +2487,10 @@
         <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>354</v>
+        <v>258</v>
       </c>
       <c r="C57" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>73</v>
@@ -2509,10 +2501,10 @@
         <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C58" t="s">
-        <v>259</v>
+        <v>358</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>72</v>
@@ -2523,10 +2515,10 @@
         <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>356</v>
+        <v>259</v>
       </c>
       <c r="C59" t="s">
-        <v>260</v>
+        <v>359</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>71</v>
@@ -2537,10 +2529,10 @@
         <v>162</v>
       </c>
       <c r="B60" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C60" t="s">
-        <v>261</v>
+        <v>361</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>70</v>
@@ -2551,10 +2543,10 @@
         <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="C61" t="s">
-        <v>262</v>
+        <v>362</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>69</v>
@@ -2565,10 +2557,10 @@
         <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C62" t="s">
-        <v>263</v>
+        <v>364</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>68</v>
@@ -2579,10 +2571,10 @@
         <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>360</v>
+        <v>261</v>
       </c>
       <c r="C63" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>67</v>
@@ -2593,10 +2585,10 @@
         <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>361</v>
+        <v>262</v>
       </c>
       <c r="C64" t="s">
-        <v>265</v>
+        <v>365</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>66</v>
@@ -2607,10 +2599,10 @@
         <v>167</v>
       </c>
       <c r="B65" t="s">
-        <v>362</v>
+        <v>263</v>
       </c>
       <c r="C65" t="s">
-        <v>266</v>
+        <v>366</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>65</v>
@@ -2621,10 +2613,10 @@
         <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>363</v>
+        <v>264</v>
       </c>
       <c r="C66" t="s">
-        <v>267</v>
+        <v>367</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>64</v>
@@ -2635,10 +2627,10 @@
         <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C67" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>63</v>
@@ -2649,10 +2641,10 @@
         <v>170</v>
       </c>
       <c r="B68" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="C68" t="s">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>62</v>
@@ -2663,10 +2655,10 @@
         <v>171</v>
       </c>
       <c r="B69" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C69" t="s">
-        <v>270</v>
+        <v>371</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>61</v>
@@ -2677,10 +2669,10 @@
         <v>172</v>
       </c>
       <c r="B70" t="s">
-        <v>367</v>
+        <v>266</v>
       </c>
       <c r="C70" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>60</v>
@@ -2691,10 +2683,10 @@
         <v>173</v>
       </c>
       <c r="B71" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C71" t="s">
-        <v>272</v>
+        <v>373</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>59</v>
@@ -2705,10 +2697,10 @@
         <v>174</v>
       </c>
       <c r="B72" t="s">
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="C72" t="s">
-        <v>273</v>
+        <v>374</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>58</v>
@@ -2719,10 +2711,10 @@
         <v>175</v>
       </c>
       <c r="B73" t="s">
-        <v>370</v>
+        <v>268</v>
       </c>
       <c r="C73" t="s">
-        <v>274</v>
+        <v>375</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>57</v>
@@ -2733,10 +2725,10 @@
         <v>176</v>
       </c>
       <c r="B74" t="s">
-        <v>371</v>
+        <v>269</v>
       </c>
       <c r="C74" t="s">
-        <v>275</v>
+        <v>376</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>56</v>
@@ -2747,10 +2739,10 @@
         <v>177</v>
       </c>
       <c r="B75" t="s">
-        <v>372</v>
+        <v>270</v>
       </c>
       <c r="C75" t="s">
-        <v>276</v>
+        <v>376</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>55</v>
@@ -2761,10 +2753,10 @@
         <v>178</v>
       </c>
       <c r="B76" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C76" t="s">
-        <v>277</v>
+        <v>378</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>54</v>
@@ -2775,10 +2767,10 @@
         <v>179</v>
       </c>
       <c r="B77" t="s">
-        <v>374</v>
+        <v>271</v>
       </c>
       <c r="C77" t="s">
-        <v>278</v>
+        <v>379</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>53</v>
@@ -2789,10 +2781,10 @@
         <v>180</v>
       </c>
       <c r="B78" t="s">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="C78" t="s">
-        <v>279</v>
+        <v>380</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>52</v>
@@ -2803,10 +2795,10 @@
         <v>181</v>
       </c>
       <c r="B79" t="s">
-        <v>376</v>
+        <v>273</v>
       </c>
       <c r="C79" t="s">
-        <v>280</v>
+        <v>381</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>51</v>
@@ -2817,10 +2809,10 @@
         <v>182</v>
       </c>
       <c r="B80" t="s">
-        <v>377</v>
+        <v>274</v>
       </c>
       <c r="C80" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>50</v>
@@ -2831,10 +2823,10 @@
         <v>183</v>
       </c>
       <c r="B81" t="s">
-        <v>378</v>
+        <v>275</v>
       </c>
       <c r="C81" t="s">
-        <v>281</v>
+        <v>382</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>49</v>
@@ -2845,10 +2837,10 @@
         <v>184</v>
       </c>
       <c r="B82" t="s">
-        <v>379</v>
+        <v>276</v>
       </c>
       <c r="C82" t="s">
-        <v>282</v>
+        <v>383</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>48</v>
@@ -2859,10 +2851,10 @@
         <v>185</v>
       </c>
       <c r="B83" t="s">
-        <v>380</v>
+        <v>277</v>
       </c>
       <c r="C83" t="s">
-        <v>283</v>
+        <v>384</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>47</v>
@@ -2873,10 +2865,10 @@
         <v>186</v>
       </c>
       <c r="B84" t="s">
-        <v>381</v>
+        <v>278</v>
       </c>
       <c r="C84" t="s">
-        <v>284</v>
+        <v>385</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>46</v>
@@ -2887,10 +2879,10 @@
         <v>187</v>
       </c>
       <c r="B85" t="s">
-        <v>382</v>
+        <v>279</v>
       </c>
       <c r="C85" t="s">
-        <v>285</v>
+        <v>386</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>45</v>
@@ -2901,10 +2893,10 @@
         <v>188</v>
       </c>
       <c r="B86" t="s">
-        <v>383</v>
+        <v>280</v>
       </c>
       <c r="C86" t="s">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>44</v>
@@ -2915,10 +2907,10 @@
         <v>189</v>
       </c>
       <c r="B87" t="s">
-        <v>384</v>
+        <v>281</v>
       </c>
       <c r="C87" t="s">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>43</v>
@@ -2929,10 +2921,10 @@
         <v>190</v>
       </c>
       <c r="B88" t="s">
-        <v>385</v>
+        <v>282</v>
       </c>
       <c r="C88" t="s">
-        <v>287</v>
+        <v>387</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>42</v>
@@ -2943,10 +2935,10 @@
         <v>191</v>
       </c>
       <c r="B89" t="s">
-        <v>386</v>
+        <v>283</v>
       </c>
       <c r="C89" t="s">
-        <v>288</v>
+        <v>388</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>41</v>
@@ -2957,10 +2949,10 @@
         <v>192</v>
       </c>
       <c r="B90" t="s">
-        <v>387</v>
+        <v>284</v>
       </c>
       <c r="C90" t="s">
-        <v>289</v>
+        <v>389</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>40</v>
@@ -2971,10 +2963,10 @@
         <v>193</v>
       </c>
       <c r="B91" t="s">
-        <v>388</v>
+        <v>285</v>
       </c>
       <c r="C91" t="s">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>39</v>
@@ -2985,10 +2977,10 @@
         <v>194</v>
       </c>
       <c r="B92" t="s">
-        <v>389</v>
+        <v>286</v>
       </c>
       <c r="C92" t="s">
-        <v>291</v>
+        <v>391</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>38</v>
@@ -2999,10 +2991,10 @@
         <v>195</v>
       </c>
       <c r="B93" t="s">
-        <v>390</v>
+        <v>287</v>
       </c>
       <c r="C93" t="s">
-        <v>292</v>
+        <v>392</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>37</v>
@@ -3013,10 +3005,10 @@
         <v>196</v>
       </c>
       <c r="B94" t="s">
-        <v>391</v>
+        <v>288</v>
       </c>
       <c r="C94" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>36</v>
@@ -3027,10 +3019,10 @@
         <v>197</v>
       </c>
       <c r="B95" t="s">
-        <v>392</v>
+        <v>289</v>
       </c>
       <c r="C95" t="s">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>35</v>
@@ -3041,10 +3033,10 @@
         <v>198</v>
       </c>
       <c r="B96" t="s">
-        <v>393</v>
+        <v>290</v>
       </c>
       <c r="C96" t="s">
-        <v>295</v>
+        <v>395</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>34</v>
@@ -3055,10 +3047,10 @@
         <v>199</v>
       </c>
       <c r="B97" t="s">
-        <v>394</v>
+        <v>291</v>
       </c>
       <c r="C97" t="s">
-        <v>296</v>
+        <v>396</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>33</v>
@@ -3069,10 +3061,10 @@
         <v>200</v>
       </c>
       <c r="B98" t="s">
-        <v>395</v>
+        <v>292</v>
       </c>
       <c r="C98" t="s">
-        <v>297</v>
+        <v>397</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>32</v>
@@ -3083,10 +3075,10 @@
         <v>201</v>
       </c>
       <c r="B99" t="s">
-        <v>396</v>
+        <v>293</v>
       </c>
       <c r="C99" t="s">
-        <v>298</v>
+        <v>398</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>31</v>
@@ -3097,10 +3089,10 @@
         <v>202</v>
       </c>
       <c r="B100" t="s">
-        <v>397</v>
+        <v>294</v>
       </c>
       <c r="C100" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>30</v>
@@ -3111,10 +3103,10 @@
         <v>203</v>
       </c>
       <c r="B101" t="s">
-        <v>398</v>
+        <v>295</v>
       </c>
       <c r="C101" t="s">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>29</v>
